--- a/UseCaseIScenarij/scenarij-prijava.xlsx
+++ b/UseCaseIScenarij/scenarij-prijava.xlsx
@@ -24,15 +24,9 @@
     <t>Naziv:</t>
   </si>
   <si>
-    <t>Prijava korisnika/login</t>
-  </si>
-  <si>
     <t xml:space="preserve">Opis: </t>
   </si>
   <si>
-    <t>Korisnik se putem interfejsa prijavljuje na aplikaciju</t>
-  </si>
-  <si>
     <t>Glavni tok:</t>
   </si>
   <si>
@@ -42,9 +36,6 @@
     <t>Posljedice</t>
   </si>
   <si>
-    <t>Uspješna prijava korisnika i pristup aplikaciji</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tok događaja </t>
   </si>
   <si>
@@ -57,12 +48,6 @@
     <t>1.Pristup aplikaciji</t>
   </si>
   <si>
-    <t>2. Ponuđeno da li se korisnik prijavljuje ili registruje</t>
-  </si>
-  <si>
-    <t>3.Korisnik bira prijavu</t>
-  </si>
-  <si>
     <t>4.Unos podataka za pristup</t>
   </si>
   <si>
@@ -94,6 +79,21 @@
   </si>
   <si>
     <t>Pristup inerfejsu, unos neophodnih podataka, uspješna prijava korisnika I pristup aplikaciji</t>
+  </si>
+  <si>
+    <t>Prijava kupca/login</t>
+  </si>
+  <si>
+    <t>Kupac se putem interfejsa prijavljuje na aplikaciju</t>
+  </si>
+  <si>
+    <t>Uspješna prijava kupca i pristup aplikaciji</t>
+  </si>
+  <si>
+    <t>2. Ponuđeno da li se kupac prijavljuje ili registruje</t>
+  </si>
+  <si>
+    <t>3.Kupac bira prijavu</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -468,130 +468,130 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="B22" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
